--- a/Macros/gallery-attachments.xlsx
+++ b/Macros/gallery-attachments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alteryx0-my.sharepoint.com/personal/alloyd_alteryx_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alteryx0-my.sharepoint.com/personal/alloyd_alteryx_com/Documents/Desktop/Testgit/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="114" documentId="8_{54B8AB67-241F-4291-8129-1D3D3716CB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07DCCCA3-6401-7B4C-9873-67C2404B549F}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="-460" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11839,8 +11839,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S57" sqref="S57:S188"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
